--- a/TestData/Calendar.xlsx
+++ b/TestData/Calendar.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18855" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="4320"/>
   </bookViews>
   <sheets>
     <sheet name="MAIN" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="PARAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$5</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
+  <oleSize ref="C1:H13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>ID</t>
   </si>
@@ -150,214 +151,229 @@
     <t>ZIP_CODE</t>
   </si>
   <si>
+    <t>30004</t>
+  </si>
+  <si>
+    <t>98 HAWTHORNE DR</t>
+  </si>
+  <si>
+    <t>51611</t>
+  </si>
+  <si>
+    <t>3095 GLENN KNOLLS CT ALPHARETTA GA</t>
+  </si>
+  <si>
+    <t>30022</t>
+  </si>
+  <si>
+    <t>13 LAUREL HOLW</t>
+  </si>
+  <si>
+    <t>78232</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>CC_EXP_MONTH</t>
+  </si>
+  <si>
+    <t>CC_EXP_YEAR</t>
+  </si>
+  <si>
+    <t>75243</t>
+  </si>
+  <si>
+    <t>20111 120TH AVE NE, BOTHELL, WA</t>
+  </si>
+  <si>
+    <t>98011</t>
+  </si>
+  <si>
+    <t>13306 AUDELIA RD UNIT 243</t>
+  </si>
+  <si>
+    <t>5406 BRADFORD DR</t>
+  </si>
+  <si>
+    <t>75235</t>
+  </si>
+  <si>
+    <t>END</t>
+  </si>
+  <si>
+    <t>12217 plano rd</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>3442 FRANCIS RD SUIT 230 ALPH GA</t>
+  </si>
+  <si>
+    <t>KEYWORD</t>
+  </si>
+  <si>
+    <t>VALUE</t>
+  </si>
+  <si>
+    <t>COVERAGE</t>
+  </si>
+  <si>
+    <t>Partial Address</t>
+  </si>
+  <si>
+    <t>Green Address</t>
+  </si>
+  <si>
+    <t>Red Address</t>
+  </si>
+  <si>
+    <t>Ranged Address 1</t>
+  </si>
+  <si>
+    <t>2 Green Address</t>
+  </si>
+  <si>
+    <t>GigaP Green Address</t>
+  </si>
+  <si>
+    <t>2 Partial Address</t>
+  </si>
+  <si>
+    <t>Out Of Foot Print Address</t>
+  </si>
+  <si>
+    <t>Close Match Green Address</t>
+  </si>
+  <si>
+    <t>MDU Address</t>
+  </si>
+  <si>
+    <t>1012 BRENTNOOR KENNESAW KENNESAW, GA</t>
+  </si>
+  <si>
+    <t>30144</t>
+  </si>
+  <si>
+    <t>30064</t>
+  </si>
+  <si>
+    <t>2578 SMITH AV SW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1244 aleamo dr </t>
+  </si>
+  <si>
+    <t>30062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">603 Riley TRL Cedar Park </t>
+  </si>
+  <si>
+    <t>78613</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>75234</t>
+  </si>
+  <si>
+    <t>SHIPPING_STATE</t>
+  </si>
+  <si>
+    <t>12 (Dec)</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>PARAMS</t>
+  </si>
+  <si>
+    <t>NEW_CHECKOUT</t>
+  </si>
+  <si>
+    <t>OLD_CHECKOUT</t>
+  </si>
+  <si>
+    <t>PARAM37</t>
+  </si>
+  <si>
+    <t>PARAM38</t>
+  </si>
+  <si>
+    <t>PARAM39</t>
+  </si>
+  <si>
+    <t>PARAM40</t>
+  </si>
+  <si>
+    <t>PARAM41</t>
+  </si>
+  <si>
+    <t>PARAM42</t>
+  </si>
+  <si>
+    <t>PARAM43</t>
+  </si>
+  <si>
+    <t>PARAM44</t>
+  </si>
+  <si>
+    <t>PARAM45</t>
+  </si>
+  <si>
+    <t>PARAM46</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>SKIP</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>SearchCustomer</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Recharge</t>
+  </si>
+  <si>
+    <t>Recharge_Amount</t>
+  </si>
+  <si>
+    <t>Recharge_Method</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
-    <t>30004</t>
-  </si>
-  <si>
-    <t>98 HAWTHORNE DR</t>
-  </si>
-  <si>
-    <t>51611</t>
-  </si>
-  <si>
-    <t>3095 GLENN KNOLLS CT ALPHARETTA GA</t>
-  </si>
-  <si>
-    <t>30022</t>
-  </si>
-  <si>
-    <t>13 LAUREL HOLW</t>
-  </si>
-  <si>
-    <t>78232</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>CC_EXP_MONTH</t>
-  </si>
-  <si>
-    <t>CC_EXP_YEAR</t>
-  </si>
-  <si>
-    <t>75243</t>
-  </si>
-  <si>
-    <t>20111 120TH AVE NE, BOTHELL, WA</t>
-  </si>
-  <si>
-    <t>98011</t>
-  </si>
-  <si>
-    <t>13306 AUDELIA RD UNIT 243</t>
-  </si>
-  <si>
-    <t>5406 BRADFORD DR</t>
-  </si>
-  <si>
-    <t>75235</t>
-  </si>
-  <si>
-    <t>END</t>
-  </si>
-  <si>
-    <t>12217 plano rd</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>3442 FRANCIS RD SUIT 230 ALPH GA</t>
-  </si>
-  <si>
-    <t>KEYWORD</t>
-  </si>
-  <si>
-    <t>VALUE</t>
-  </si>
-  <si>
-    <t>COVERAGE</t>
-  </si>
-  <si>
-    <t>Partial Address</t>
-  </si>
-  <si>
-    <t>Green Address</t>
-  </si>
-  <si>
-    <t>Red Address</t>
-  </si>
-  <si>
-    <t>Ranged Address 1</t>
-  </si>
-  <si>
-    <t>2 Green Address</t>
-  </si>
-  <si>
-    <t>GigaP Green Address</t>
-  </si>
-  <si>
-    <t>2 Partial Address</t>
-  </si>
-  <si>
-    <t>Out Of Foot Print Address</t>
-  </si>
-  <si>
-    <t>Close Match Green Address</t>
-  </si>
-  <si>
-    <t>MDU Address</t>
-  </si>
-  <si>
-    <t>1012 BRENTNOOR KENNESAW KENNESAW, GA</t>
-  </si>
-  <si>
-    <t>30144</t>
-  </si>
-  <si>
-    <t>30064</t>
-  </si>
-  <si>
-    <t>2578 SMITH AV SW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1244 aleamo dr </t>
-  </si>
-  <si>
-    <t>30062</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603 Riley TRL Cedar Park </t>
-  </si>
-  <si>
-    <t>78613</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>75234</t>
-  </si>
-  <si>
-    <t>SHIPPING_STATE</t>
-  </si>
-  <si>
-    <t>12 (Dec)</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>PARAMS</t>
-  </si>
-  <si>
-    <t>NEW_CHECKOUT</t>
-  </si>
-  <si>
-    <t>OLD_CHECKOUT</t>
-  </si>
-  <si>
-    <t>PARAM37</t>
-  </si>
-  <si>
-    <t>PARAM38</t>
-  </si>
-  <si>
-    <t>PARAM39</t>
-  </si>
-  <si>
-    <t>PARAM40</t>
-  </si>
-  <si>
-    <t>PARAM41</t>
-  </si>
-  <si>
-    <t>PARAM42</t>
-  </si>
-  <si>
-    <t>PARAM43</t>
-  </si>
-  <si>
-    <t>PARAM44</t>
-  </si>
-  <si>
-    <t>PARAM45</t>
-  </si>
-  <si>
-    <t>PARAM46</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>SKIP</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>SearchCustomer</t>
-  </si>
-  <si>
-    <t>CUSTOMER_ID</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -532,23 +548,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -584,23 +583,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -780,10 +762,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BE5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,12 +808,12 @@
     <col min="57" max="16384" width="9.140625" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -954,37 +936,37 @@
         <v>40</v>
       </c>
       <c r="AQ1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>41</v>
       </c>
@@ -1002,13 +984,17 @@
         <v>4</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+        <v>107</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -1051,25 +1037,29 @@
       <c r="AX2" s="3"/>
       <c r="AY2" s="3"/>
     </row>
-    <row r="3" spans="1:52" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>43</v>
+        <v>114</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="9"/>
       <c r="H3" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -1112,63 +1102,128 @@
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-      <c r="AJ4" s="3"/>
-      <c r="AK4" s="3"/>
-      <c r="AL4" s="3"/>
-      <c r="AM4" s="3"/>
-      <c r="AN4" s="3"/>
-      <c r="AO4" s="3"/>
-      <c r="AP4" s="3"/>
-      <c r="AQ4" s="3"/>
-      <c r="AR4" s="3"/>
-      <c r="AS4" s="3"/>
-      <c r="AT4" s="3"/>
-      <c r="AU4" s="3"/>
-      <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-      <c r="AX4" s="3"/>
-      <c r="AY4" s="3"/>
-      <c r="AZ4" s="3"/>
+      <c r="D4" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
+    </row>
+    <row r="5" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+      <c r="AQ5" s="3"/>
+      <c r="AR5" s="3"/>
+      <c r="AS5" s="3"/>
+      <c r="AT5" s="3"/>
+      <c r="AU5" s="3"/>
+      <c r="AV5" s="3"/>
+      <c r="AW5" s="3"/>
+      <c r="AX5" s="3"/>
+      <c r="AY5" s="3"/>
+      <c r="AZ5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1200,152 +1255,152 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="D19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1382,13 +1437,13 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1396,27 +1451,27 @@
         <v>42</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AC3" t="str">
         <f>PARAM!A5</f>
@@ -1425,30 +1480,30 @@
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" t="s">
         <v>89</v>
-      </c>
-      <c r="C5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Calendar.xlsx
+++ b/TestData/Calendar.xlsx
@@ -12,7 +12,7 @@
     <sheet name="PARAM" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">MAIN!$A$1:$AP$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <oleSize ref="C1:H13"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="119">
   <si>
     <t>ID</t>
   </si>
@@ -368,6 +368,15 @@
   </si>
   <si>
     <t>200</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -762,10 +771,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:BE5"/>
+  <dimension ref="A1:BE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,7 +1047,7 @@
       <c r="AY2" s="3"/>
     </row>
     <row r="3" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="5"/>
@@ -1102,86 +1111,93 @@
       <c r="AX3" s="5"/>
       <c r="AY3" s="5"/>
     </row>
-    <row r="4" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5"/>
-      <c r="AB4" s="5"/>
-      <c r="AC4" s="5"/>
-      <c r="AD4" s="5"/>
-      <c r="AE4" s="5"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="5"/>
-      <c r="AH4" s="5"/>
-      <c r="AI4" s="5"/>
-      <c r="AJ4" s="5"/>
-      <c r="AK4" s="5"/>
-      <c r="AL4" s="5"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
-    </row>
-    <row r="5" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>109</v>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+    </row>
+    <row r="5" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>116</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -1223,8 +1239,132 @@
       <c r="AW5" s="3"/>
       <c r="AX5" s="3"/>
       <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-    </row>
+    </row>
+    <row r="6" spans="1:57" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
+    </row>
+    <row r="7" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="3"/>
+      <c r="AC7" s="3"/>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3"/>
+      <c r="AF7" s="3"/>
+      <c r="AG7" s="3"/>
+      <c r="AH7" s="3"/>
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+      <c r="AK7" s="3"/>
+      <c r="AL7" s="3"/>
+      <c r="AM7" s="3"/>
+      <c r="AN7" s="3"/>
+      <c r="AO7" s="3"/>
+      <c r="AP7" s="3"/>
+      <c r="AQ7" s="3"/>
+      <c r="AR7" s="3"/>
+      <c r="AS7" s="3"/>
+      <c r="AT7" s="3"/>
+      <c r="AU7" s="3"/>
+      <c r="AV7" s="3"/>
+      <c r="AW7" s="3"/>
+      <c r="AX7" s="3"/>
+      <c r="AY7" s="3"/>
+      <c r="AZ7" s="3"/>
+    </row>
+    <row r="8" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:57" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
